--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1440712.968263649</v>
+        <v>1420939.25834562</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11394496.91692287</v>
+        <v>10685617.02449133</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>3315852.860131506</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9526534.646762006</v>
+        <v>9857685.435910065</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.1912779163984</v>
+        <v>413.3309011210951</v>
       </c>
       <c r="H2" t="n">
-        <v>317.8508165002056</v>
+        <v>319.2807326453058</v>
       </c>
       <c r="I2" t="n">
-        <v>129.0738433901119</v>
+        <v>134.4566669891818</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.00575005403945</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.0868477570606</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>214.4641357492216</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>138.8386751012051</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.64237950897791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.93133662033669</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2137866807357</v>
+        <v>136.2884916812486</v>
       </c>
       <c r="H3" t="n">
-        <v>101.3246261557512</v>
+        <v>102.0461191870212</v>
       </c>
       <c r="I3" t="n">
-        <v>50.5002105381317</v>
+        <v>53.07229059965253</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.01544507406484</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>150.6989228876907</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.6111220571264</v>
+        <v>195.9122356337554</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8670577071278</v>
+        <v>62.89649252519702</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0438512720582</v>
+        <v>107.4813390524571</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.5107385676106</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2673678245054</v>
+        <v>286.2707840152105</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>224.7744443998831</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>291.1534352401995</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>231.0649899483152</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>77.43213079320299</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>169.9252208683108</v>
       </c>
       <c r="U6" t="n">
         <v>225.8573996139459</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>159.4277364963618</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>214.1177467433087</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>26.73524267227048</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,16 +1192,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>75.70103628687264</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>145.1366921458246</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>168.0078290579497</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>83.13723023285944</v>
+        <v>247.2395995396735</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>28.33530928504437</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>238.7809396517848</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>55.82801639720944</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>189.7440396025274</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041353</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>168.1158122680985</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,13 +2058,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>182.1403198644314</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>244.5908644722878</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.90446037005169</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>208.6902559978726</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>217.4025801238256</v>
       </c>
       <c r="X22" t="n">
-        <v>171.9731989154908</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>29.24094653898288</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>114.4746605491552</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>211.4617311772591</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>252.6816724429431</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>40.13771612386325</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>109.781165125545</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>67.97155043793498</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>173.5578851713653</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>77.31354443380498</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785988</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>321.4267434728701</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>223.2113011018229</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>60.0883815238794</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>111.9187566128688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>388.1176431960099</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>168.1158122680954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77.90058429280597</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>263.5963199427378</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>105.0221052551881</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>91.06967859962465</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>64.14647130913946</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>81.17400253769573</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>39.32117841962351</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -3948,10 +3948,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>20.21044458879267</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>196.98992439718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>64.3701233831905</v>
       </c>
       <c r="V44" t="n">
-        <v>230.2267521569518</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4155,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>81.56018748672092</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>185.3352716415556</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2075.090620145147</v>
+        <v>1324.27566962536</v>
       </c>
       <c r="C2" t="n">
-        <v>2075.090620145147</v>
+        <v>1324.27566962536</v>
       </c>
       <c r="D2" t="n">
-        <v>1716.824921538396</v>
+        <v>1324.27566962536</v>
       </c>
       <c r="E2" t="n">
-        <v>1331.036668940152</v>
+        <v>1324.27566962536</v>
       </c>
       <c r="F2" t="n">
-        <v>920.0507641505444</v>
+        <v>913.289764835753</v>
       </c>
       <c r="G2" t="n">
-        <v>502.6858369622632</v>
+        <v>495.7838041073741</v>
       </c>
       <c r="H2" t="n">
-        <v>181.6244061539747</v>
+        <v>173.2780135565601</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>37.4631984159724</v>
       </c>
       <c r="J2" t="n">
-        <v>216.8324092840272</v>
+        <v>37.4631984159724</v>
       </c>
       <c r="K2" t="n">
-        <v>264.8431798929633</v>
+        <v>67.89097975271376</v>
       </c>
       <c r="L2" t="n">
-        <v>774.7911504989767</v>
+        <v>531.4980601503722</v>
       </c>
       <c r="M2" t="n">
-        <v>1358.813069725878</v>
+        <v>894.1494129251711</v>
       </c>
       <c r="N2" t="n">
-        <v>1937.653076636176</v>
+        <v>1357.75649332283</v>
       </c>
       <c r="O2" t="n">
-        <v>2439.047643360794</v>
+        <v>1821.363573720488</v>
       </c>
       <c r="P2" t="n">
-        <v>2556.688217460221</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="Q2" t="n">
-        <v>2562.339328400155</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>1846.8914864006</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>1681.147195736903</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>1464.516755586174</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1324.27566962536</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1324.27566962536</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1324.27566962536</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1324.27566962536</v>
       </c>
       <c r="Y2" t="n">
-        <v>2461.690460209269</v>
+        <v>1324.27566962536</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>971.3543429077587</v>
+        <v>960.9730558600751</v>
       </c>
       <c r="C3" t="n">
-        <v>796.9013136266317</v>
+        <v>786.5200265789481</v>
       </c>
       <c r="D3" t="n">
-        <v>647.9669039653804</v>
+        <v>637.5856169176968</v>
       </c>
       <c r="E3" t="n">
-        <v>488.7294489599249</v>
+        <v>478.3481619122413</v>
       </c>
       <c r="F3" t="n">
-        <v>342.1948909868098</v>
+        <v>331.8136039391263</v>
       </c>
       <c r="G3" t="n">
-        <v>204.6052074709152</v>
+        <v>194.1484608267539</v>
       </c>
       <c r="H3" t="n">
-        <v>102.2571002428836</v>
+        <v>91.07157275905577</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>37.4631984159724</v>
       </c>
       <c r="J3" t="n">
-        <v>51.24678656800311</v>
+        <v>37.4631984159724</v>
       </c>
       <c r="K3" t="n">
-        <v>357.2067777729835</v>
+        <v>331.4806024988174</v>
       </c>
       <c r="L3" t="n">
-        <v>830.0121400429763</v>
+        <v>788.2276825763092</v>
       </c>
       <c r="M3" t="n">
-        <v>1433.732918664143</v>
+        <v>912.1611901865657</v>
       </c>
       <c r="N3" t="n">
-        <v>2067.911902443181</v>
+        <v>1053.783493883352</v>
       </c>
       <c r="O3" t="n">
-        <v>2192.84532477648</v>
+        <v>1491.067485118051</v>
       </c>
       <c r="P3" t="n">
-        <v>2558.154270699999</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="R3" t="n">
-        <v>2532.020697012211</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="S3" t="n">
-        <v>2379.799562782221</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="T3" t="n">
-        <v>2182.212570805325</v>
+        <v>1675.268773693817</v>
       </c>
       <c r="U3" t="n">
-        <v>1954.064027666813</v>
+        <v>1611.736963062305</v>
       </c>
       <c r="V3" t="n">
-        <v>1718.91191943507</v>
+        <v>1376.584854830562</v>
       </c>
       <c r="W3" t="n">
-        <v>1464.674562706868</v>
+        <v>1376.584854830562</v>
       </c>
       <c r="X3" t="n">
-        <v>1256.823062501335</v>
+        <v>1168.733354625029</v>
       </c>
       <c r="Y3" t="n">
-        <v>1049.062763736382</v>
+        <v>960.9730558600751</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.9779494690721</v>
+        <v>1583.997512702448</v>
       </c>
       <c r="C4" t="n">
-        <v>219.9779494690721</v>
+        <v>1583.997512702448</v>
       </c>
       <c r="D4" t="n">
-        <v>219.9779494690721</v>
+        <v>1433.880873290112</v>
       </c>
       <c r="E4" t="n">
-        <v>219.9779494690721</v>
+        <v>1285.967779707719</v>
       </c>
       <c r="F4" t="n">
-        <v>219.9779494690721</v>
+        <v>1139.077832209809</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1030.510823065913</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1030.510823065913</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>1030.510823065913</v>
       </c>
       <c r="J4" t="n">
-        <v>51.24678656800311</v>
+        <v>1030.510823065913</v>
       </c>
       <c r="K4" t="n">
-        <v>138.1386621581657</v>
+        <v>1110.198977316275</v>
       </c>
       <c r="L4" t="n">
-        <v>304.8567816908241</v>
+        <v>1267.69881368844</v>
       </c>
       <c r="M4" t="n">
-        <v>491.0267862272822</v>
+        <v>1444.14943113083</v>
       </c>
       <c r="N4" t="n">
-        <v>678.2047005881366</v>
+        <v>1621.839063698815</v>
       </c>
       <c r="O4" t="n">
-        <v>835.0775046092319</v>
+        <v>1769.947903761286</v>
       </c>
       <c r="P4" t="n">
-        <v>945.7886068347278</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="Q4" t="n">
-        <v>945.7886068347278</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="R4" t="n">
-        <v>945.7886068347278</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="S4" t="n">
-        <v>736.1818002007776</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="T4" t="n">
-        <v>736.1818002007776</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="U4" t="n">
-        <v>447.0228428022873</v>
+        <v>1583.997512702448</v>
       </c>
       <c r="V4" t="n">
-        <v>447.0228428022873</v>
+        <v>1583.997512702448</v>
       </c>
       <c r="W4" t="n">
-        <v>447.0228428022873</v>
+        <v>1583.997512702448</v>
       </c>
       <c r="X4" t="n">
-        <v>219.9779494690721</v>
+        <v>1583.997512702448</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.9779494690721</v>
+        <v>1583.997512702448</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2112.029911866479</v>
+        <v>1197.334536366853</v>
       </c>
       <c r="C5" t="n">
-        <v>1743.067394926067</v>
+        <v>828.3720194264413</v>
       </c>
       <c r="D5" t="n">
-        <v>1384.801696319317</v>
+        <v>828.3720194264413</v>
       </c>
       <c r="E5" t="n">
-        <v>999.0134437210725</v>
+        <v>828.3720194264413</v>
       </c>
       <c r="F5" t="n">
-        <v>588.0275389314648</v>
+        <v>821.4265186772378</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>404.3387369136653</v>
       </c>
       <c r="H5" t="n">
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>1043.407654486662</v>
+        <v>707.8574493821779</v>
       </c>
       <c r="M5" t="n">
-        <v>1675.125465469974</v>
+        <v>1339.57526036549</v>
       </c>
       <c r="N5" t="n">
-        <v>1869.459678361956</v>
+        <v>1966.882928425336</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129034</v>
+        <v>2416.620883129033</v>
       </c>
       <c r="P5" t="n">
         <v>2527.35520837856</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896983</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.124290896983</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="V5" t="n">
-        <v>2406.124290896983</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="W5" t="n">
-        <v>2406.124290896983</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="X5" t="n">
-        <v>2406.124290896983</v>
+        <v>1974.073708406786</v>
       </c>
       <c r="Y5" t="n">
-        <v>2406.124290896983</v>
+        <v>1583.934376430975</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>918.7636139849254</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>744.3105847037984</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>595.3761750425472</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>436.1387200370916</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313602</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>479.7878236320133</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>1113.966807411052</v>
+        <v>1367.541868311954</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.14579119009</v>
+        <v>1566.198609964618</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2115.634618717341</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4673,25 +4673,25 @@
         <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2463.013155273854</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2266.023859433942</v>
+        <v>2220.119002424259</v>
       </c>
       <c r="U6" t="n">
-        <v>2037.885071945108</v>
+        <v>1991.980214935424</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1756.828106703682</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1502.59074997548</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1294.739249769947</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1086.978951004993</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.8728099301276</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>538.8728099301276</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>538.8728099301276</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>538.8728099301276</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>391.9828624322172</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>223.3760174276006</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4749,28 +4749,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>759.6653890736577</v>
+        <v>843.7411832797532</v>
       </c>
       <c r="T7" t="n">
-        <v>759.6653890736577</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="U7" t="n">
-        <v>759.6653890736577</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="V7" t="n">
-        <v>759.6653890736577</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="W7" t="n">
-        <v>759.6653890736577</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="X7" t="n">
-        <v>759.6653890736577</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="Y7" t="n">
-        <v>538.8728099301276</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1357.104639024234</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.243971000046</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="X8" t="n">
-        <v>1747.243971000046</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.104639024234</v>
+        <v>1567.784838233996</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>143.6627691908473</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>599.3334982122307</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>599.3334982122307</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>599.3334982122307</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1364.157835753767</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1364.157835753767</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>1364.157835753767</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.115628253778</v>
+        <v>1364.157835753767</v>
       </c>
       <c r="W10" t="n">
-        <v>1048.115628253778</v>
+        <v>1074.740665716806</v>
       </c>
       <c r="X10" t="n">
-        <v>820.1260773557608</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y10" t="n">
-        <v>599.3334982122307</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1091.323932370578</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C11" t="n">
-        <v>722.3614154301667</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D11" t="n">
-        <v>364.0957168234162</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2925.360405285277</v>
+        <v>3075.868852377177</v>
       </c>
       <c r="V11" t="n">
-        <v>2594.297517941706</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="W11" t="n">
-        <v>2241.528862671592</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="X11" t="n">
-        <v>1868.063104410512</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y11" t="n">
-        <v>1477.9237724347</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5126,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>561.0764108006842</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>392.1402278727774</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>242.0235884604416</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>242.0235884604416</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>95.13364096253127</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>95.13364096253127</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>742.724875630924</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1934.208022973022</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C14" t="n">
         <v>1934.208022973022</v>
@@ -5272,16 +5272,16 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5299,7 +5299,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>3084.412953274035</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V14" t="n">
-        <v>3084.412953274035</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W14" t="n">
-        <v>3084.412953274035</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="X14" t="n">
-        <v>2710.947195012955</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y14" t="n">
-        <v>2320.807863037144</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1543.94801785216</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1543.94801785216</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1289.263529646273</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>999.846359609312</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038041</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097629</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490879</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926347</v>
       </c>
       <c r="F17" t="n">
-        <v>481.584566587187</v>
+        <v>298.6298631030272</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W17" t="n">
-        <v>3155.791869823214</v>
+        <v>2972.837166339054</v>
       </c>
       <c r="X17" t="n">
-        <v>2782.326111562134</v>
+        <v>2599.371408077975</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102163</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.7293032143257</v>
+        <v>381.6654861422325</v>
       </c>
       <c r="C19" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D19" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E19" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368017</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="V19" t="n">
-        <v>950.9286032928337</v>
+        <v>1259.157560278957</v>
       </c>
       <c r="W19" t="n">
-        <v>661.5114332558732</v>
+        <v>1012.09608101402</v>
       </c>
       <c r="X19" t="n">
-        <v>433.5218823578558</v>
+        <v>784.1065301160023</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.7293032143257</v>
+        <v>563.3139509724722</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1225.638517792182</v>
+        <v>1032.061124352529</v>
       </c>
       <c r="C20" t="n">
-        <v>1225.638517792182</v>
+        <v>663.0986074121172</v>
       </c>
       <c r="D20" t="n">
-        <v>867.3728191854312</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E20" t="n">
-        <v>481.584566587187</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F20" t="n">
-        <v>481.584566587187</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794326</v>
+        <v>2866.097597267227</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450755</v>
+        <v>2535.034709923656</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180641</v>
+        <v>2182.266054653542</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919561</v>
+        <v>1808.800296392462</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943749</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M21" t="n">
         <v>1212.42807043813</v>
@@ -5846,7 +5846,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1633.75957288077</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952863</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952863</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348675</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.65004939672</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102585</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456658</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.7753643667</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763053</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888696</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682809</v>
+        <v>1383.507193008248</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645849</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X22" t="n">
-        <v>1815.408037711009</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y22" t="n">
-        <v>1815.408037711009</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2303.170539913434</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C23" t="n">
-        <v>1934.208022973022</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>944.3948478560253</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1395.429061104434</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T23" t="n">
-        <v>3296.069511973834</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U23" t="n">
-        <v>3042.53903524767</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V23" t="n">
-        <v>3042.53903524767</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W23" t="n">
-        <v>2689.770379977556</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X23" t="n">
-        <v>2689.770379977556</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y23" t="n">
-        <v>2689.770379977556</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>625.6709106036544</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="C25" t="n">
-        <v>625.6709106036544</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="D25" t="n">
-        <v>625.6709106036544</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="E25" t="n">
-        <v>477.7578170212613</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1432.180498412989</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U25" t="n">
-        <v>1143.077631538632</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V25" t="n">
-        <v>1143.077631538632</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W25" t="n">
-        <v>853.6604615016718</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X25" t="n">
-        <v>625.6709106036544</v>
+        <v>613.6330486738361</v>
       </c>
       <c r="Y25" t="n">
-        <v>625.6709106036544</v>
+        <v>392.840469530306</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.569348694472</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.606831754061</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>867.3728191854311</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810559</v>
+        <v>786.6724891157194</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.5429342656</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.774278995485</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.308520734406</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.169188758594</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.2880032601528</v>
+        <v>1014.31579855997</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3518203322459</v>
+        <v>845.3796156320631</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2351809199101</v>
+        <v>695.2629762197273</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>547.3498826373342</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760404</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T28" t="n">
-        <v>1735.608663915319</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.608663915319</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="V28" t="n">
-        <v>1735.608663915319</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="W28" t="n">
-        <v>1624.71859813194</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="X28" t="n">
-        <v>1396.729047233923</v>
+        <v>1416.75684253374</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.936468090393</v>
+        <v>1195.96426339021</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1685.03694908864</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.66971909763</v>
+        <v>1316.074432148229</v>
       </c>
       <c r="D29" t="n">
-        <v>1453.66971909763</v>
+        <v>1247.416300392739</v>
       </c>
       <c r="E29" t="n">
-        <v>1067.881466499386</v>
+        <v>1247.416300392739</v>
       </c>
       <c r="F29" t="n">
-        <v>656.8955617097781</v>
+        <v>836.4303956031313</v>
       </c>
       <c r="G29" t="n">
-        <v>241.8231115547746</v>
+        <v>421.3579454481278</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>123.774345056895</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>438.0622262757421</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>842.3994604579141</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1293.433673706323</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>2271.983976536151</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2818.762793594933</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939506</v>
+        <v>3321.73526447427</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296684</v>
+        <v>3716.509630831448</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3964.79599258713</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609169</v>
+        <v>4088.872314818185</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609169</v>
+        <v>3978.58164634528</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609169</v>
+        <v>3772.603898729502</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609169</v>
+        <v>3519.073422003339</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609169</v>
+        <v>3188.010534659768</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339055</v>
+        <v>2835.241879389654</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077975</v>
+        <v>2461.776121128574</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102163</v>
+        <v>2071.636789152762</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>956.8091843452891</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>782.3561550641621</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>633.4217454029108</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>474.1842903974552</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>327.6497324243402</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927781</v>
+        <v>191.2866322569583</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>100.7847378948258</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228005</v>
+        <v>175.454715786981</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031476</v>
+        <v>413.718914767329</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158129</v>
+        <v>780.4170750799942</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.69340030231</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1701.216443856764</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2112.177723274819</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.677314750922</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2580.318872397522</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2580.174518990037</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2450.736632483517</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2258.093632161373</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2030.025785295788</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1794.873677064045</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1540.636320335844</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1332.784820130311</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1125.024521365357</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.876212293103</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="C31" t="n">
-        <v>1614.940029365196</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="D31" t="n">
-        <v>1464.82338995286</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.82338995286</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.82338995286</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.82338995286</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.82338995286</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.82338995286</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399796</v>
+        <v>126.9000787432992</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348672</v>
+        <v>330.8872616921756</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797168</v>
+        <v>647.4470601406717</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396717</v>
+        <v>991.6041057402207</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102582</v>
+        <v>1333.012482446085</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022995</v>
+        <v>1632.342081366499</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456654</v>
+        <v>1864.949581800158</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609169</v>
+        <v>1942.559877952673</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609169</v>
+        <v>1852.729420710201</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609169</v>
+        <v>1661.043536537027</v>
       </c>
       <c r="T31" t="n">
-        <v>3247.511332282093</v>
+        <v>1439.276921106553</v>
       </c>
       <c r="U31" t="n">
-        <v>2958.408465407737</v>
+        <v>1256.309699410999</v>
       </c>
       <c r="V31" t="n">
-        <v>2703.72397720185</v>
+        <v>1001.625211205112</v>
       </c>
       <c r="W31" t="n">
-        <v>2414.30680716489</v>
+        <v>712.2080411681509</v>
       </c>
       <c r="X31" t="n">
-        <v>2186.317256266872</v>
+        <v>484.2184902701335</v>
       </c>
       <c r="Y31" t="n">
-        <v>1965.524677123342</v>
+        <v>263.4259111266034</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2212.771568013854</v>
+        <v>2360.432768538145</v>
       </c>
       <c r="C32" t="n">
-        <v>1843.809051073443</v>
+        <v>1991.470251597734</v>
       </c>
       <c r="D32" t="n">
-        <v>1485.543352466692</v>
+        <v>1633.204552990983</v>
       </c>
       <c r="E32" t="n">
-        <v>1099.755099868448</v>
+        <v>1247.416300392739</v>
       </c>
       <c r="F32" t="n">
-        <v>688.7691950788405</v>
+        <v>836.4303956031313</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>421.3579454481278</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>123.774345056895</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>270.6565772553891</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810559</v>
+        <v>604.4759509452355</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1055.510164193644</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1684.799956332727</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2231.578773391509</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>3111.543423720964</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3506.317790078142</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3964.79599258713</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>4088.872314818185</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>4088.872314818185</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>4088.872314818185</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>4088.872314818185</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>3863.406354109273</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>3510.637698839159</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>3137.171940578079</v>
       </c>
       <c r="Y32" t="n">
-        <v>2599.371408077976</v>
+        <v>2747.032608602267</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>956.8091843452891</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>782.3561550641621</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>633.4217454029108</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>474.1842903974552</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>327.6497324243402</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>191.2866322569583</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>100.7847378948258</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228011</v>
+        <v>175.454715786981</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031482</v>
+        <v>413.7189147673281</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>780.4170750799933</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.693400302309</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1701.216443856764</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2112.177723274818</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.677314750921</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2580.318872397522</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2580.174518990037</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2450.736632483517</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2258.093632161373</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2030.025785295788</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1794.873677064045</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1540.636320335844</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1332.784820130311</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1125.024521365357</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1876.069090541939</v>
+        <v>438.8066073634471</v>
       </c>
       <c r="C34" t="n">
-        <v>1876.069090541939</v>
+        <v>438.8066073634471</v>
       </c>
       <c r="D34" t="n">
-        <v>1876.069090541939</v>
+        <v>288.6899679511114</v>
       </c>
       <c r="E34" t="n">
-        <v>1876.069090541939</v>
+        <v>288.6899679511114</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>288.6899679511114</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>227.9946330785059</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134516</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>81.77744629636371</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>126.9000787432992</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>330.8872616921756</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>647.4470601406717</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>991.6041057402207</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1333.012482446085</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1632.342081366499</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1864.949581800158</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1942.559877952673</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1942.559877952673</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>1942.559877952673</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.322864763051</v>
+        <v>1720.793262522199</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>1431.690395647842</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682808</v>
+        <v>1177.005907441955</v>
       </c>
       <c r="W34" t="n">
-        <v>1989.118339645847</v>
+        <v>887.5887374049946</v>
       </c>
       <c r="X34" t="n">
-        <v>1876.069090541939</v>
+        <v>659.5991865069773</v>
       </c>
       <c r="Y34" t="n">
-        <v>1876.069090541939</v>
+        <v>438.8066073634471</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.586939522201</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>1552.907897641581</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>1552.907897641581</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>1167.119645043337</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>756.1337402537292</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218339</v>
@@ -6937,10 +6937,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6952,7 +6952,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296684</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609169</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609169</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W35" t="n">
-        <v>3155.791869823214</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X35" t="n">
-        <v>2782.326111562134</v>
+        <v>2698.609586621926</v>
       </c>
       <c r="Y35" t="n">
-        <v>2392.186779586323</v>
+        <v>2308.470254646114</v>
       </c>
     </row>
     <row r="36">
@@ -7037,7 +7037,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218339</v>
@@ -7125,22 +7125,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1645.778206672847</v>
+        <v>1157.752682209304</v>
       </c>
       <c r="V37" t="n">
-        <v>1391.09371846696</v>
+        <v>1157.752682209304</v>
       </c>
       <c r="W37" t="n">
-        <v>1391.09371846696</v>
+        <v>1157.752682209304</v>
       </c>
       <c r="X37" t="n">
-        <v>1391.09371846696</v>
+        <v>929.7631313112869</v>
       </c>
       <c r="Y37" t="n">
-        <v>1170.30113932343</v>
+        <v>708.9705521677568</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1477.112184968822</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C38" t="n">
-        <v>1108.149668028411</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D38" t="n">
-        <v>749.8839694216604</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E38" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218339</v>
@@ -7192,34 +7192,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3233.616247266114</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2980.08577053995</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2980.08577053995</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W38" t="n">
-        <v>2627.317115269836</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X38" t="n">
-        <v>2253.851357008756</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y38" t="n">
-        <v>1863.712025032944</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>463.6594280995009</v>
+        <v>278.196479393871</v>
       </c>
       <c r="C40" t="n">
-        <v>294.723245171594</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D40" t="n">
-        <v>294.723245171594</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E40" t="n">
-        <v>294.723245171594</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F40" t="n">
-        <v>294.723245171594</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218339</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W40" t="n">
-        <v>1094.090022971288</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X40" t="n">
-        <v>866.1004720732708</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="Y40" t="n">
-        <v>645.3078929297407</v>
+        <v>459.8449442241107</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C41" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993391</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993391</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3079.909711953368</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>3079.909711953368</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X41" t="n">
-        <v>3079.909711953368</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y41" t="n">
-        <v>2689.770379977556</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7502,13 +7502,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.8377936138381</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C43" t="n">
-        <v>163.8377936138381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8377936138381</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7596,25 +7596,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621292</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251686</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271513</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y43" t="n">
-        <v>163.8377936138381</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1689.318139675982</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,7 +7660,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883007</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="V44" t="n">
-        <v>2839.523069976995</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W44" t="n">
-        <v>2839.523069976995</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X44" t="n">
-        <v>2466.057311715915</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y44" t="n">
-        <v>2075.917979740103</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.8689899442139</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C46" t="n">
-        <v>612.932807016307</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D46" t="n">
-        <v>462.8161676039713</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E46" t="n">
-        <v>462.8161676039713</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>462.8161676039713</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>295.1133309786902</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>148.896144196548</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7836,22 +7836,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.608663915319</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.924175709432</v>
+        <v>1037.531836518008</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.507005672471</v>
+        <v>748.1146664810472</v>
       </c>
       <c r="X46" t="n">
-        <v>963.5174547744537</v>
+        <v>748.1146664810472</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.5174547744537</v>
+        <v>527.322087337517</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>13.68875537804047</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>392.8858234171873</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>250.4235137546325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>345.8633464167177</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>366.1559423850479</v>
       </c>
       <c r="P2" t="n">
-        <v>46.43132885913681</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.369542477570917</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>20.10287086406323</v>
+        <v>27.160855144983</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>478.1024745330039</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>333.2798451653269</v>
       </c>
       <c r="P3" t="n">
-        <v>287.2443701204555</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>5.308696774518694</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>263.3587879228525</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>282.3928579664016</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>225.9632519039992</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378118</v>
+        <v>306.0684860781992</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933068</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.36925650589494</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>160.3329896347536</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>71.23016211346021</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>96.7251388557163</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>167.8579417260426</v>
+        <v>3.755572419228429</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>116.4197056292764</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23475,10 +23475,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>12.21423230711721</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>293.4129523202035</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>29.80490967364182</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>181.1251564493181</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>181.1251564493145</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>69.99732345939663</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>41.93213386430315</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.8293812934289</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>145.9927856228103</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>69.1204182127654</v>
       </c>
       <c r="X22" t="n">
-        <v>53.73645647354635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>174.6770236006373</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>30.28035436516562</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>8.087218098910142</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>102.0013691777399</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>105.283331899068</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>176.741833211046</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>286.711491182748</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>121.0498792159552</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>142.2354048423642</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.49498218058335</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>104.540957368312</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>105.9374267351488</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>113.7908987761684</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>22.80408245744354</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25210,13 +25210,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>181.1251564493176</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.9313958891313</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>22.61551826287513</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>277.7117364082925</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>112.8482915399955</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>103.1003497894884</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>84.8518057213325</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>288.4310800505114</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>168.06888189215</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>266.3125537477983</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.59472895491476</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>186.6250485757115</v>
       </c>
       <c r="V44" t="n">
-        <v>97.52550631318312</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>14.7922329231172</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>66.80237168227239</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>996074.4859140215</v>
+        <v>978027.2227300035</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773952.8562997073</v>
+        <v>773952.8562997072</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773952.8562997074</v>
+        <v>773952.8562997069</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773952.8562997071</v>
+        <v>773952.856299707</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773952.8562997073</v>
+        <v>931616.2929526337</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773952.8562997071</v>
+        <v>931616.2929526339</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773952.8562997071</v>
+        <v>856805.6622694199</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773952.8562997073</v>
+        <v>856805.66226942</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773952.8562997072</v>
+        <v>773952.8562997071</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773952.856299707</v>
+        <v>773952.8562997069</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773952.8562997071</v>
+        <v>773952.8562997072</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651767</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651768</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
+        <v>426246.3737136507</v>
+      </c>
+      <c r="F2" t="n">
+        <v>426246.3737136508</v>
+      </c>
+      <c r="G2" t="n">
+        <v>426246.3737136508</v>
+      </c>
+      <c r="H2" t="n">
         <v>426246.3737136506</v>
       </c>
-      <c r="F2" t="n">
-        <v>426246.3737136507</v>
-      </c>
-      <c r="G2" t="n">
-        <v>426246.3737136509</v>
-      </c>
-      <c r="H2" t="n">
-        <v>426246.3737136508</v>
-      </c>
       <c r="I2" t="n">
-        <v>426246.3737136508</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="J2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="K2" t="n">
+        <v>463087.3010112922</v>
+      </c>
+      <c r="L2" t="n">
+        <v>463087.301011292</v>
+      </c>
+      <c r="M2" t="n">
         <v>426246.3737136506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>426246.3737136507</v>
-      </c>
-      <c r="L2" t="n">
-        <v>426246.3737136507</v>
-      </c>
-      <c r="M2" t="n">
-        <v>426246.3737136507</v>
       </c>
       <c r="N2" t="n">
         <v>426246.3737136506</v>
       </c>
       <c r="O2" t="n">
+        <v>426246.3737136509</v>
+      </c>
+      <c r="P2" t="n">
         <v>426246.3737136506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>426246.3737136509</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720788.9028693151</v>
+        <v>629581.4298479842</v>
       </c>
       <c r="C3" t="n">
-        <v>62149.06470476009</v>
+        <v>149438.8466014899</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>96558.96659736066</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>122525.2635793585</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211849.0572775323</v>
+        <v>242284.6722436858</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26438,19 +26438,19 @@
         <v>7330.627242042245</v>
       </c>
       <c r="I4" t="n">
+        <v>38975.18638660157</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38975.18638660158</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23959.97754964004</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23959.97754964004</v>
+      </c>
+      <c r="M4" t="n">
         <v>7330.627242042245</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7330.627242042245</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7330.627242042245</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7330.627242042245</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7330.627242042256</v>
       </c>
       <c r="N4" t="n">
         <v>7330.627242042245</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84025.07533073143</v>
+        <v>72792.40660191901</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26484,22 +26484,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139326</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139326</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139327</v>
+        <v>85907.99125817031</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>85907.99125817031</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139327</v>
@@ -26508,7 +26508,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-503511.929312402</v>
+        <v>-431507.4025284123</v>
       </c>
       <c r="C6" t="n">
-        <v>167176.4700212124</v>
+        <v>79886.68812448243</v>
       </c>
       <c r="D6" t="n">
-        <v>-4585.539344438497</v>
+        <v>-4585.539344438846</v>
       </c>
       <c r="E6" t="n">
-        <v>162536.4260930243</v>
+        <v>159060.2367949635</v>
       </c>
       <c r="F6" t="n">
-        <v>344609.4059102152</v>
+        <v>341133.2166121544</v>
       </c>
       <c r="G6" t="n">
-        <v>344609.4059102151</v>
+        <v>341133.2166121546</v>
       </c>
       <c r="H6" t="n">
-        <v>344609.4059102152</v>
+        <v>341133.2166121539</v>
       </c>
       <c r="I6" t="n">
-        <v>344609.4059102157</v>
+        <v>263762.607468795</v>
       </c>
       <c r="J6" t="n">
-        <v>177004.2281002325</v>
+        <v>237796.3104867972</v>
       </c>
       <c r="K6" t="n">
-        <v>344609.4059102152</v>
+        <v>351216.7799973264</v>
       </c>
       <c r="L6" t="n">
-        <v>344609.4059102152</v>
+        <v>351216.7799973263</v>
       </c>
       <c r="M6" t="n">
-        <v>297057.1401168003</v>
+        <v>341133.216612154</v>
       </c>
       <c r="N6" t="n">
-        <v>344609.4059102151</v>
+        <v>341133.216612154</v>
       </c>
       <c r="O6" t="n">
-        <v>344609.4059102151</v>
+        <v>341133.2166121543</v>
       </c>
       <c r="P6" t="n">
-        <v>344609.4059102154</v>
+        <v>341133.216612154</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.2255751857372</v>
+        <v>490.4943030174305</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,10 +26752,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>468.289980199655</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
+        <v>1194.51293060493</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1022.218078704546</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1022.218078704546</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022923</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022923</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022923</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022923</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.2255751857372</v>
+        <v>490.4943030174305</v>
       </c>
       <c r="C3" t="n">
-        <v>68.2505251523279</v>
+        <v>102.9817973206346</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>468.289980199655</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>172.2948519003837</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.272139359314967e-13</v>
+        <v>363.1114752026378</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>468.289980199655</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>468.289980199655</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>172.2948519003837</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.23514392200971</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>160.9051839800343</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.8529351706617</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1767361399376</v>
+        <v>112.3492308951082</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.5955591470757</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.60184702953065</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>34.6537081760889</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>152.0865355068678</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>162.9754799845961</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.62514238252766</v>
       </c>
       <c r="H4" t="n">
-        <v>153.806342793806</v>
+        <v>154.3631818787339</v>
       </c>
       <c r="I4" t="n">
-        <v>126.9677502925957</v>
+        <v>128.8512101013294</v>
       </c>
       <c r="J4" t="n">
-        <v>26.39722440815676</v>
+        <v>30.8251769270571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.852981398648069</v>
+        <v>12.09740349606238</v>
       </c>
       <c r="R4" t="n">
-        <v>134.7070685104702</v>
+        <v>137.5231483816906</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>208.6022114978835</v>
       </c>
       <c r="T4" t="n">
-        <v>223.8987694227521</v>
+        <v>224.1663710279833</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9352109891540863</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.58040642328109</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>83.97589412690033</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>70.53999045278857</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>25.09418201320253</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>45.93814540375681</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>72.14290791478834</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>338.5376490987371</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>273.5399324305404</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.297270500744617</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>26.6546313037878</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.11145959873663</v>
+        <v>1.97183639403992</v>
       </c>
       <c r="H2" t="n">
-        <v>21.62398561556152</v>
+        <v>20.19406947046134</v>
       </c>
       <c r="I2" t="n">
-        <v>81.40204618029402</v>
+        <v>76.01922258122408</v>
       </c>
       <c r="J2" t="n">
-        <v>179.2074941182732</v>
+        <v>167.3571491486458</v>
       </c>
       <c r="K2" t="n">
-        <v>268.5855789327948</v>
+        <v>250.8249837083557</v>
       </c>
       <c r="L2" t="n">
-        <v>333.204160627631</v>
+        <v>311.1705717524549</v>
       </c>
       <c r="M2" t="n">
-        <v>370.7538302666636</v>
+        <v>346.2372172249624</v>
       </c>
       <c r="N2" t="n">
-        <v>376.7530148515741</v>
+        <v>351.8396973795283</v>
       </c>
       <c r="O2" t="n">
-        <v>355.7571884666367</v>
+        <v>332.2322492362939</v>
       </c>
       <c r="P2" t="n">
-        <v>303.6305296228261</v>
+        <v>283.5525382584333</v>
       </c>
       <c r="Q2" t="n">
-        <v>228.0138827430704</v>
+        <v>212.9361473968786</v>
       </c>
       <c r="R2" t="n">
-        <v>132.63397401914</v>
+        <v>123.8633678871102</v>
       </c>
       <c r="S2" t="n">
-        <v>48.11488560621101</v>
+        <v>44.93322182918472</v>
       </c>
       <c r="T2" t="n">
-        <v>9.242914393469604</v>
+        <v>8.631713814909753</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1689167678989304</v>
+        <v>0.1577469115231936</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.129730482474982</v>
+        <v>1.05502548196202</v>
       </c>
       <c r="H3" t="n">
-        <v>10.91081808074522</v>
+        <v>10.1893250494753</v>
       </c>
       <c r="I3" t="n">
-        <v>38.89642231328337</v>
+        <v>36.32434225176254</v>
       </c>
       <c r="J3" t="n">
-        <v>106.7347558026035</v>
+        <v>99.67677152168369</v>
       </c>
       <c r="K3" t="n">
-        <v>182.4266981284272</v>
+        <v>170.363478813139</v>
       </c>
       <c r="L3" t="n">
-        <v>245.2952084865087</v>
+        <v>229.0747214233764</v>
       </c>
       <c r="M3" t="n">
-        <v>286.2479384762267</v>
+        <v>267.3193951444996</v>
       </c>
       <c r="N3" t="n">
-        <v>293.8240696503682</v>
+        <v>274.3945441002888</v>
       </c>
       <c r="O3" t="n">
-        <v>268.7916205386857</v>
+        <v>251.0174005262882</v>
       </c>
       <c r="P3" t="n">
-        <v>215.7289725701569</v>
+        <v>201.4635940072914</v>
       </c>
       <c r="Q3" t="n">
-        <v>144.2091050962802</v>
+        <v>134.6730773115028</v>
       </c>
       <c r="R3" t="n">
-        <v>70.14238907857829</v>
+        <v>65.50412597655423</v>
       </c>
       <c r="S3" t="n">
-        <v>20.98424821614713</v>
+        <v>19.59663559696997</v>
       </c>
       <c r="T3" t="n">
-        <v>4.553606637695211</v>
+        <v>4.252493061066212</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07432437384703831</v>
+        <v>0.06940957118171188</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9471280864005095</v>
+        <v>0.8844979234740549</v>
       </c>
       <c r="H4" t="n">
-        <v>8.420829713633628</v>
+        <v>7.863990628705693</v>
       </c>
       <c r="I4" t="n">
-        <v>28.48272463466261</v>
+        <v>26.59926482592886</v>
       </c>
       <c r="J4" t="n">
-        <v>66.96195570851602</v>
+        <v>62.53400318961567</v>
       </c>
       <c r="K4" t="n">
-        <v>110.0390631290774</v>
+        <v>102.7625769272584</v>
       </c>
       <c r="L4" t="n">
-        <v>140.8121156817631</v>
+        <v>131.5007185499518</v>
       </c>
       <c r="M4" t="n">
-        <v>148.4666326709453</v>
+        <v>138.6490699496648</v>
       </c>
       <c r="N4" t="n">
-        <v>144.9364279852708</v>
+        <v>135.3523049621707</v>
       </c>
       <c r="O4" t="n">
-        <v>133.8722498850466</v>
+        <v>125.019761037951</v>
       </c>
       <c r="P4" t="n">
-        <v>114.5508369224761</v>
+        <v>106.9760033990802</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.30906185304632</v>
+        <v>74.064639755632</v>
       </c>
       <c r="R4" t="n">
-        <v>42.58632286669926</v>
+        <v>39.77024299547885</v>
       </c>
       <c r="S4" t="n">
-        <v>16.5058594693616</v>
+        <v>15.41438653908875</v>
       </c>
       <c r="T4" t="n">
-        <v>4.046820005529449</v>
+        <v>3.779218400298233</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0516615319854824</v>
+        <v>0.04824534128040305</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987508</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.512347035317</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970241</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353166</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>167.2582047636607</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.49572788781427</v>
+        <v>30.73513266337511</v>
       </c>
       <c r="L2" t="n">
-        <v>515.0989602080942</v>
+        <v>468.289980199655</v>
       </c>
       <c r="M2" t="n">
-        <v>589.9211305322234</v>
+        <v>366.3144977523221</v>
       </c>
       <c r="N2" t="n">
-        <v>584.6868756669674</v>
+        <v>468.289980199655</v>
       </c>
       <c r="O2" t="n">
-        <v>506.4591583076954</v>
+        <v>468.289980199655</v>
       </c>
       <c r="P2" t="n">
-        <v>118.8288627266934</v>
+        <v>52.31954250316375</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.708192868620955</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>309.0504961666468</v>
+        <v>296.9872768513586</v>
       </c>
       <c r="L3" t="n">
-        <v>477.5811740100937</v>
+        <v>461.3606869469614</v>
       </c>
       <c r="M3" t="n">
-        <v>609.8189683042083</v>
+        <v>125.1853612224813</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>143.0528320169555</v>
       </c>
       <c r="O3" t="n">
-        <v>126.1953760942413</v>
+        <v>441.7010012471707</v>
       </c>
       <c r="P3" t="n">
-        <v>368.9989352762822</v>
+        <v>385.9519552328983</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.227331010258638</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>87.76957130319451</v>
+        <v>80.4930851013755</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4021409420792</v>
+        <v>159.0907438102679</v>
       </c>
       <c r="M4" t="n">
-        <v>188.0505096327859</v>
+        <v>178.2329469115054</v>
       </c>
       <c r="N4" t="n">
-        <v>189.0686003644994</v>
+        <v>179.4844773413993</v>
       </c>
       <c r="O4" t="n">
-        <v>158.4573777990863</v>
+        <v>149.6048889519907</v>
       </c>
       <c r="P4" t="n">
-        <v>111.8293961873696</v>
+        <v>104.2545626639737</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0948039241184</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>454.2807623269668</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>364.5790074754073</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>487.3789268404263</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.34947739681233</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893642</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127293</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.670908060958</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>497.524276190154</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>507.3053774831309</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>408.4214486688606</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609575</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37077,22 +37077,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>635.6462546859428</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
